--- a/DJF/FT_UAH_PHOTSAT_SERV_129.xlsx
+++ b/DJF/FT_UAH_PHOTSAT_SERV_129.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\FT_UAH_PHOTSAT_SERV_129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\TRABAJO_GESTION_DATOS\DJF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29504F10-4629-4FE2-99DE-6EA69B7E3150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6199A826-A8C7-42FB-A349-78FE64E0F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
   <si>
     <t>Description</t>
   </si>
@@ -213,12 +213,6 @@
     <t>STEP4</t>
   </si>
   <si>
-    <t>Mask = 0xFFFF</t>
-  </si>
-  <si>
-    <t>0XFFFF = 16 bits</t>
-  </si>
-  <si>
     <t>STEP5</t>
   </si>
   <si>
@@ -293,6 +287,9 @@
   </si>
   <si>
     <t>Comprueba que la acción se ha ejecutado con éxito</t>
+  </si>
+  <si>
+    <t>Mask = 0xFF</t>
   </si>
 </sst>
 </file>
@@ -881,6 +878,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,12 +914,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,15 +921,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC30005-F7B6-49AE-8AD7-DAC67702BFF9}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1616,7 @@
     <col min="6" max="6" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1635,12 +1632,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1651,7 +1648,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="5"/>
       <c r="C5" s="9" t="s">
@@ -1664,9 +1661,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="59"/>
@@ -1677,7 +1674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="57"/>
       <c r="C7" s="60"/>
@@ -1686,7 +1683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="57"/>
       <c r="C8" s="60"/>
@@ -1695,7 +1692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="57"/>
       <c r="C9" s="60"/>
@@ -1704,7 +1701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="57"/>
       <c r="C10" s="60"/>
@@ -1713,19 +1710,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="57"/>
       <c r="C11" s="60"/>
       <c r="D11" s="48"/>
       <c r="E11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="57"/>
       <c r="C12" s="60"/>
@@ -1734,7 +1728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="58"/>
       <c r="C13" s="61"/>
@@ -1743,7 +1737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="5"/>
       <c r="C14" s="33" t="s">
@@ -1756,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="65" t="s">
         <v>21</v>
@@ -1769,7 +1763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63"/>
@@ -1780,7 +1774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="67"/>
       <c r="C17" s="64"/>
@@ -1791,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
@@ -1802,7 +1796,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="5"/>
       <c r="C19" s="9" t="s">
@@ -1815,9 +1809,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="68" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="59"/>
@@ -1828,7 +1822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="57"/>
       <c r="C21" s="60"/>
@@ -1837,7 +1831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="57"/>
       <c r="C22" s="60"/>
@@ -1846,7 +1840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="57"/>
       <c r="C23" s="60"/>
@@ -1855,7 +1849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="57"/>
       <c r="C24" s="60"/>
@@ -1864,19 +1858,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="57"/>
       <c r="C25" s="60"/>
       <c r="D25" s="48"/>
       <c r="E25" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="57"/>
       <c r="C26" s="60"/>
@@ -1885,7 +1876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="58"/>
       <c r="C27" s="61"/>
@@ -1894,7 +1885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="5"/>
       <c r="C28" s="33" t="s">
@@ -1907,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="65" t="s">
         <v>21</v>
@@ -1920,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="66"/>
       <c r="C30" s="63"/>
@@ -1931,7 +1922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="67"/>
       <c r="C31" s="64"/>
@@ -1942,7 +1933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>56</v>
       </c>
@@ -1968,14 +1959,14 @@
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1984,49 +1975,49 @@
       <c r="B35" s="57"/>
       <c r="C35" s="60"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="81"/>
+      <c r="E35" s="70"/>
     </row>
     <row r="36" spans="1:5" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="57"/>
       <c r="C36" s="60"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="81"/>
+      <c r="E36" s="70"/>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="57"/>
       <c r="C37" s="60"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="81"/>
+      <c r="E37" s="70"/>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="57"/>
       <c r="C38" s="60"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="81"/>
+      <c r="E38" s="70"/>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="57"/>
       <c r="C39" s="60"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="81"/>
+      <c r="E39" s="70"/>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="57"/>
       <c r="C40" s="60"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="81"/>
+      <c r="E40" s="70"/>
     </row>
     <row r="41" spans="1:5" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="B41" s="58"/>
       <c r="C41" s="61"/>
       <c r="D41" s="49"/>
-      <c r="E41" s="82"/>
+      <c r="E41" s="71"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
@@ -2102,14 +2093,14 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="68" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="69" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2118,49 +2109,49 @@
       <c r="B49" s="57"/>
       <c r="C49" s="60"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="81"/>
+      <c r="E49" s="70"/>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="57"/>
       <c r="C50" s="60"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="81"/>
+      <c r="E50" s="70"/>
     </row>
     <row r="51" spans="1:5" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="57"/>
       <c r="C51" s="60"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="81"/>
+      <c r="E51" s="70"/>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="57"/>
       <c r="C52" s="60"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="81"/>
+      <c r="E52" s="70"/>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="57"/>
       <c r="C53" s="60"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="81"/>
+      <c r="E53" s="70"/>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
       <c r="B54" s="57"/>
       <c r="C54" s="60"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="81"/>
+      <c r="E54" s="70"/>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
       <c r="B55" s="58"/>
       <c r="C55" s="61"/>
       <c r="D55" s="49"/>
-      <c r="E55" s="82"/>
+      <c r="E55" s="71"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
@@ -2212,7 +2203,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>60</v>
@@ -2236,12 +2227,12 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="51"/>
-      <c r="B62" s="75" t="s">
-        <v>64</v>
+      <c r="B62" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="32" t="s">
         <v>46</v>
@@ -2253,7 +2244,7 @@
       <c r="C63" s="60"/>
       <c r="D63" s="48"/>
       <c r="E63" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2306,10 +2297,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2331,11 +2322,11 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="51"/>
       <c r="B70" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E70" s="32" t="s">
         <v>46</v>
@@ -2391,10 +2382,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2415,33 +2406,33 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="51"/>
-      <c r="B77" s="75" t="s">
-        <v>77</v>
+      <c r="B77" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="51"/>
-      <c r="B78" s="76"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="8"/>
       <c r="D78" s="48"/>
       <c r="E78" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="51"/>
-      <c r="B79" s="76"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="8"/>
       <c r="D79" s="48"/>
       <c r="E79" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,17 +2485,17 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="5"/>
       <c r="C85" s="9" t="s">
         <v>3</v>
@@ -2517,7 +2508,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="47" t="s">
         <v>19</v>
       </c>
@@ -2526,20 +2517,20 @@
         <v>20</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="48"/>
       <c r="C87" s="60"/>
       <c r="D87" s="48"/>
       <c r="E87" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
+      <c r="A88" s="74"/>
       <c r="B88" s="49"/>
       <c r="C88" s="61"/>
       <c r="D88" s="49"/>
@@ -2548,7 +2539,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="5"/>
       <c r="C89" s="33" t="s">
         <v>6</v>
@@ -2561,8 +2552,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="77" t="s">
+      <c r="A90" s="74"/>
+      <c r="B90" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C90" s="62"/>
@@ -2574,8 +2565,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="78"/>
+      <c r="A91" s="74"/>
+      <c r="B91" s="81"/>
       <c r="C91" s="63"/>
       <c r="D91" s="24" t="s">
         <v>10</v>
@@ -2585,8 +2576,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="69"/>
-      <c r="B92" s="79"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="82"/>
       <c r="C92" s="63"/>
       <c r="D92" s="19" t="s">
         <v>11</v>
@@ -2596,12 +2587,12 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
-      <c r="B93" s="71" t="s">
-        <v>86</v>
+      <c r="A93" s="74"/>
+      <c r="B93" s="76" t="s">
+        <v>84</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="74" t="s">
+      <c r="D93" s="79" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="18" t="s">
@@ -2609,28 +2600,28 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
-      <c r="B94" s="72"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="77"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="74"/>
+      <c r="D94" s="79"/>
       <c r="E94" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="69"/>
-      <c r="B95" s="72"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="77"/>
       <c r="C95" s="27"/>
       <c r="D95" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E95" s="18" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
-      <c r="B96" s="72"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="77"/>
       <c r="C96" s="28"/>
       <c r="D96" s="48"/>
       <c r="E96" s="36" t="s">
@@ -2638,17 +2629,17 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
-      <c r="B97" s="72"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="77"/>
       <c r="C97" s="28"/>
       <c r="D97" s="48"/>
       <c r="E97" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="69"/>
-      <c r="B98" s="72"/>
+      <c r="A98" s="74"/>
+      <c r="B98" s="77"/>
       <c r="C98" s="30"/>
       <c r="D98" s="49"/>
       <c r="E98" s="20" t="s">
@@ -2656,9 +2647,9 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
-      <c r="B99" s="73" t="s">
-        <v>87</v>
+      <c r="A99" s="74"/>
+      <c r="B99" s="78" t="s">
+        <v>85</v>
       </c>
       <c r="C99" s="27"/>
       <c r="D99" s="17" t="s">
@@ -2669,7 +2660,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="69"/>
+      <c r="A100" s="74"/>
       <c r="B100" s="45"/>
       <c r="C100" s="30"/>
       <c r="D100" s="19" t="s">
@@ -2680,10 +2671,10 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="45"/>
       <c r="C101" s="27"/>
-      <c r="D101" s="74" t="s">
+      <c r="D101" s="79" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="18" t="s">
@@ -2691,25 +2682,63 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="45"/>
       <c r="C102" s="28"/>
-      <c r="D102" s="74"/>
+      <c r="D102" s="79"/>
       <c r="E102" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="70"/>
+      <c r="A103" s="75"/>
       <c r="B103" s="46"/>
       <c r="C103" s="30"/>
-      <c r="D103" s="74"/>
+      <c r="D103" s="79"/>
       <c r="E103" s="13" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A85:A103"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="D48:D55"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E34:E41"/>
     <mergeCell ref="A33:A45"/>
     <mergeCell ref="A5:A17"/>
     <mergeCell ref="B6:B13"/>
@@ -2723,44 +2752,6 @@
     <mergeCell ref="D20:D27"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A47:A59"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="D48:D55"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A85:A103"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DJF/FT_UAH_PHOTSAT_SERV_129.xlsx
+++ b/DJF/FT_UAH_PHOTSAT_SERV_129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\TRABAJO_GESTION_DATOS\DJF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6199A826-A8C7-42FB-A349-78FE64E0F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB2FA8A-EFC0-42DD-AB37-36C6134D0DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT_UAH_ASW_SERV_129-0010" sheetId="21" r:id="rId1"/>
@@ -134,10 +134,6 @@
     <t>Bytes of image</t>
   </si>
   <si>
-    <t>Valida la correcta implementación del TC[129,1], encargado de establecer los parámetros iniciales de una secuencia de observación,  y se asegura que se 
-completa correctamente la observación</t>
-  </si>
-  <si>
     <t>Valida el mecanismo
 de FDIR que evita que la velocidad de giro pueda alcanzar un valor
 excesivo.</t>
@@ -290,6 +286,10 @@
   </si>
   <si>
     <t>Mask = 0xFF</t>
+  </si>
+  <si>
+    <t>Valida la correcta implementación del TC[129,1], encargado de establecer los parámetros iniciales de una secuencia de observación,  y se asegura que se 
+completa correctamente dicha observación</t>
   </si>
 </sst>
 </file>
@@ -878,9 +878,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -888,39 +921,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0A612-4520-4C2A-A789-A8609401E646}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E18"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC30005-F7B6-49AE-8AD7-DAC67702BFF9}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="77" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="77" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1663,15 +1663,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
-      <c r="B6" s="68" t="s">
-        <v>50</v>
+      <c r="B6" s="78" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
       <c r="C7" s="60"/>
       <c r="D7" s="48"/>
       <c r="E7" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
       <c r="C8" s="60"/>
       <c r="D8" s="48"/>
       <c r="E8" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
       <c r="C9" s="60"/>
       <c r="D9" s="48"/>
       <c r="E9" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
       <c r="C10" s="60"/>
       <c r="D10" s="48"/>
       <c r="E10" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
       <c r="C11" s="60"/>
       <c r="D11" s="48"/>
       <c r="E11" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
       <c r="C12" s="60"/>
       <c r="D12" s="48"/>
       <c r="E12" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
       <c r="C13" s="61"/>
       <c r="D13" s="49"/>
       <c r="E13" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,15 +1811,15 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="B20" s="68" t="s">
-        <v>52</v>
+      <c r="B20" s="78" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
       <c r="C21" s="60"/>
       <c r="D21" s="48"/>
       <c r="E21" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
       <c r="C22" s="60"/>
       <c r="D22" s="48"/>
       <c r="E22" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
       <c r="C23" s="60"/>
       <c r="D23" s="48"/>
       <c r="E23" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
       <c r="C24" s="60"/>
       <c r="D24" s="48"/>
       <c r="E24" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
       <c r="C25" s="60"/>
       <c r="D25" s="48"/>
       <c r="E25" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
       <c r="C26" s="60"/>
       <c r="D26" s="48"/>
       <c r="E26" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
       <c r="C27" s="61"/>
       <c r="D27" s="49"/>
       <c r="E27" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,10 +1935,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1959,15 +1959,15 @@
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
-      <c r="B34" s="68" t="s">
-        <v>54</v>
+      <c r="B34" s="78" t="s">
+        <v>53</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,49 +1975,49 @@
       <c r="B35" s="57"/>
       <c r="C35" s="60"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="70"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="57"/>
       <c r="C36" s="60"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="70"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="57"/>
       <c r="C37" s="60"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="70"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="57"/>
       <c r="C38" s="60"/>
       <c r="D38" s="48"/>
-      <c r="E38" s="70"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="57"/>
       <c r="C39" s="60"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="70"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="57"/>
       <c r="C40" s="60"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="70"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="B41" s="58"/>
       <c r="C41" s="61"/>
       <c r="D41" s="49"/>
-      <c r="E41" s="71"/>
+      <c r="E41" s="82"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2093,15 +2093,15 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
-      <c r="B48" s="68" t="s">
-        <v>57</v>
+      <c r="B48" s="78" t="s">
+        <v>56</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="69" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="E48" s="80" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,49 +2109,49 @@
       <c r="B49" s="57"/>
       <c r="C49" s="60"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="70"/>
+      <c r="E49" s="81"/>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="57"/>
       <c r="C50" s="60"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="70"/>
+      <c r="E50" s="81"/>
     </row>
     <row r="51" spans="1:5" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="57"/>
       <c r="C51" s="60"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="70"/>
+      <c r="E51" s="81"/>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="57"/>
       <c r="C52" s="60"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="70"/>
+      <c r="E52" s="81"/>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="57"/>
       <c r="C53" s="60"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="70"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
       <c r="B54" s="57"/>
       <c r="C54" s="60"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="70"/>
+      <c r="E54" s="81"/>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
       <c r="B55" s="58"/>
       <c r="C55" s="61"/>
       <c r="D55" s="49"/>
-      <c r="E55" s="71"/>
+      <c r="E55" s="82"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2227,15 +2227,15 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="51"/>
-      <c r="B62" s="68" t="s">
-        <v>62</v>
+      <c r="B62" s="78" t="s">
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
       <c r="C63" s="60"/>
       <c r="D63" s="48"/>
       <c r="E63" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,10 +2297,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2322,14 +2322,14 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="51"/>
       <c r="B70" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,10 +2382,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2406,33 +2406,33 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="51"/>
-      <c r="B77" s="68" t="s">
-        <v>75</v>
+      <c r="B77" s="78" t="s">
+        <v>74</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="32" t="s">
         <v>71</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="51"/>
-      <c r="B78" s="72"/>
+      <c r="B78" s="79"/>
       <c r="C78" s="8"/>
       <c r="D78" s="48"/>
       <c r="E78" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="51"/>
-      <c r="B79" s="72"/>
+      <c r="B79" s="79"/>
       <c r="C79" s="8"/>
       <c r="D79" s="48"/>
       <c r="E79" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2485,17 +2485,17 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="5"/>
       <c r="C85" s="9" t="s">
         <v>3</v>
@@ -2508,7 +2508,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="74"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="47" t="s">
         <v>19</v>
       </c>
@@ -2517,20 +2517,20 @@
         <v>20</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="74"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="48"/>
       <c r="C87" s="60"/>
       <c r="D87" s="48"/>
       <c r="E87" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="49"/>
       <c r="C88" s="61"/>
       <c r="D88" s="49"/>
@@ -2539,7 +2539,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="74"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="5"/>
       <c r="C89" s="33" t="s">
         <v>6</v>
@@ -2552,8 +2552,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
-      <c r="B90" s="80" t="s">
+      <c r="A90" s="69"/>
+      <c r="B90" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C90" s="62"/>
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="74"/>
-      <c r="B91" s="81"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="76"/>
       <c r="C91" s="63"/>
       <c r="D91" s="24" t="s">
         <v>10</v>
@@ -2576,8 +2576,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="82"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="77"/>
       <c r="C92" s="63"/>
       <c r="D92" s="19" t="s">
         <v>11</v>
@@ -2587,12 +2587,12 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="74"/>
-      <c r="B93" s="76" t="s">
-        <v>84</v>
+      <c r="A93" s="69"/>
+      <c r="B93" s="71" t="s">
+        <v>83</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="79" t="s">
+      <c r="D93" s="74" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="18" t="s">
@@ -2600,56 +2600,56 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="77"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="72"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="79"/>
+      <c r="D94" s="74"/>
       <c r="E94" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="74"/>
-      <c r="B95" s="77"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="72"/>
       <c r="C95" s="27"/>
       <c r="D95" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
-      <c r="B96" s="77"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="72"/>
       <c r="C96" s="28"/>
       <c r="D96" s="48"/>
       <c r="E96" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="74"/>
-      <c r="B97" s="77"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="72"/>
       <c r="C97" s="28"/>
       <c r="D97" s="48"/>
       <c r="E97" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="77"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="72"/>
       <c r="C98" s="30"/>
       <c r="D98" s="49"/>
       <c r="E98" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="74"/>
-      <c r="B99" s="78" t="s">
-        <v>85</v>
+      <c r="A99" s="69"/>
+      <c r="B99" s="73" t="s">
+        <v>84</v>
       </c>
       <c r="C99" s="27"/>
       <c r="D99" s="17" t="s">
@@ -2660,7 +2660,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="74"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="45"/>
       <c r="C100" s="30"/>
       <c r="D100" s="19" t="s">
@@ -2671,10 +2671,10 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="74"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="45"/>
       <c r="C101" s="27"/>
-      <c r="D101" s="79" t="s">
+      <c r="D101" s="74" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="18" t="s">
@@ -2682,63 +2682,25 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="45"/>
       <c r="C102" s="28"/>
-      <c r="D102" s="79"/>
+      <c r="D102" s="74"/>
       <c r="E102" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
+      <c r="A103" s="70"/>
       <c r="B103" s="46"/>
       <c r="C103" s="30"/>
-      <c r="D103" s="79"/>
+      <c r="D103" s="74"/>
       <c r="E103" s="13" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A85:A103"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A47:A59"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="D48:D55"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E34:E41"/>
     <mergeCell ref="A33:A45"/>
     <mergeCell ref="A5:A17"/>
     <mergeCell ref="B6:B13"/>
@@ -2752,6 +2714,44 @@
     <mergeCell ref="D20:D27"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="D48:D55"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A85:A103"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
